--- a/biology/Botanique/Actaea_simplex/Actaea_simplex.xlsx
+++ b/biology/Botanique/Actaea_simplex/Actaea_simplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actaea simplex (Syn. Cimicifuga simplex (DC.) Wormsk. ex Turcz.), ou cierge d'argent[1], est une espèce de plantes à fleurs du genre Actaea appartenant à la famille des Ranunculaceae originaire du Japon (Hokkaido, Kyūshū), d'une partie orientale de la Mongolie et de l'Extrême-Orient russe, de Sakhaline aux îles Kouriles et de Sibérie orientale au Kamtchatka.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actaea simplex (Syn. Cimicifuga simplex (DC.) Wormsk. ex Turcz.), ou cierge d'argent, est une espèce de plantes à fleurs du genre Actaea appartenant à la famille des Ranunculaceae originaire du Japon (Hokkaido, Kyūshū), d'une partie orientale de la Mongolie et de l'Extrême-Orient russe, de Sakhaline aux îles Kouriles et de Sibérie orientale au Kamtchatka.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vivace à petites fleurs blanches étoilées et parfumées est la plus tardive de son genre à fleurir, en automne. C'est aussi la moins élevée, puisqu'elle atteint environ de 1,2 m à 1,5 m. Ses inflorescences sont placées en épis souples formant des hampes au-dessus d'une longue tige glabre et légèrement arquée. Ses feuilles caduques sont brillantes et divisées.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actaea simplex pousse dans des clairières ombragées.
 </t>
@@ -573,7 +589,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Actaea simplex apprécie l'ombre et les sols humides non calcaires. Elle est rustique.
 </t>
